--- a/data/trans_orig/P6715-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1891B62B-29EB-45CD-AFF6-39C9B5D5B3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6162430-2E7D-4E09-874A-591CBF0083A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAA6703D-C8C8-488A-8370-1CACE2228E18}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{053BF9A1-CE76-434B-9EA6-C0BC30E87074}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="654">
   <si>
     <t>Población según si tienen sentido sus tareas del trabajo en 2012 (Tasa respuesta: 33,9%)</t>
   </si>
@@ -96,1933 +96,1909 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen sentido sus tareas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen sentido sus tareas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>30,03%</t>
   </si>
   <si>
     <t>51,14%</t>
   </si>
   <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
   </si>
   <si>
     <t>51,76%</t>
   </si>
   <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
+    <t>54,99%</t>
   </si>
   <si>
     <t>51,4%</t>
   </si>
   <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
   </si>
 </sst>
 </file>
@@ -2434,7 +2410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0482E7B-AD6B-4CCF-A779-CFB37562A5FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5D52F-08A7-4B16-80CB-22F5B440F527}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2950,10 +2926,10 @@
         <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -2962,13 +2938,13 @@
         <v>14526</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2959,13 @@
         <v>20495</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2998,13 +2974,13 @@
         <v>17995</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3013,13 +2989,13 @@
         <v>38490</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3010,13 @@
         <v>142953</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -3049,13 +3025,13 @@
         <v>95798</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M14" s="7">
         <v>219</v>
@@ -3064,13 +3040,13 @@
         <v>238750</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3061,13 @@
         <v>172240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>111</v>
@@ -3100,13 +3076,13 @@
         <v>122688</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>272</v>
@@ -3115,18 +3091,18 @@
         <v>294928</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3144,7 +3120,7 @@
         <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3153,13 +3129,13 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3168,13 +3144,13 @@
         <v>986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,10 +3165,10 @@
         <v>5600</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>65</v>
@@ -3222,10 +3198,10 @@
         <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3216,13 @@
         <v>17179</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -3255,13 +3231,13 @@
         <v>19862</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -3270,13 +3246,13 @@
         <v>37041</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3267,13 @@
         <v>37722</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3306,13 +3282,13 @@
         <v>21194</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -3321,13 +3297,13 @@
         <v>58915</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,13 +3318,13 @@
         <v>82700</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -3357,13 +3333,13 @@
         <v>39345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -3372,13 +3348,13 @@
         <v>122044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3369,13 @@
         <v>143201</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>77</v>
@@ -3408,13 +3384,13 @@
         <v>81386</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>222</v>
@@ -3423,18 +3399,18 @@
         <v>224586</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3446,13 +3422,13 @@
         <v>1211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3461,13 +3437,13 @@
         <v>1176</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3476,13 +3452,13 @@
         <v>2387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3473,13 @@
         <v>1041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3512,13 +3488,13 @@
         <v>4227</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3527,13 +3503,13 @@
         <v>5269</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3524,13 @@
         <v>28908</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -3563,13 +3539,13 @@
         <v>19904</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -3578,13 +3554,13 @@
         <v>48812</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3575,13 @@
         <v>46082</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -3614,13 +3590,13 @@
         <v>18458</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M25" s="7">
         <v>61</v>
@@ -3629,13 +3605,13 @@
         <v>64540</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3626,13 @@
         <v>192287</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>132</v>
@@ -3665,13 +3641,13 @@
         <v>145945</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M26" s="7">
         <v>314</v>
@@ -3680,13 +3656,13 @@
         <v>338232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3677,13 @@
         <v>269529</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>174</v>
@@ -3716,13 +3692,13 @@
         <v>189711</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>427</v>
@@ -3731,18 +3707,18 @@
         <v>459240</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3754,13 +3730,13 @@
         <v>1051</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3775,7 +3751,7 @@
         <v>24</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3784,13 +3760,13 @@
         <v>1051</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,7 +3787,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3820,13 +3796,13 @@
         <v>3084</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -3835,13 +3811,13 @@
         <v>3084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3832,13 @@
         <v>7152</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -3871,13 +3847,13 @@
         <v>13549</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -3886,13 +3862,13 @@
         <v>20701</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3883,13 @@
         <v>11242</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -3922,13 +3898,13 @@
         <v>14655</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -3937,13 +3913,13 @@
         <v>25897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3934,13 @@
         <v>62870</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -3973,13 +3949,13 @@
         <v>24346</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
@@ -3988,13 +3964,13 @@
         <v>87215</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +3985,13 @@
         <v>82314</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>54</v>
@@ -4024,13 +4000,13 @@
         <v>55634</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>129</v>
@@ -4039,18 +4015,18 @@
         <v>137947</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4068,7 +4044,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4083,7 +4059,7 @@
         <v>24</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4119,7 +4095,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4128,13 +4104,13 @@
         <v>1083</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -4143,13 +4119,13 @@
         <v>2119</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4140,13 @@
         <v>12675</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -4179,13 +4155,13 @@
         <v>5971</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M36" s="7">
         <v>19</v>
@@ -4194,13 +4170,13 @@
         <v>18646</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4191,13 @@
         <v>21744</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -4230,13 +4206,13 @@
         <v>16749</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M37" s="7">
         <v>36</v>
@@ -4245,13 +4221,13 @@
         <v>38493</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4242,13 @@
         <v>82811</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H38" s="7">
         <v>28</v>
@@ -4281,13 +4257,13 @@
         <v>31489</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M38" s="7">
         <v>104</v>
@@ -4296,13 +4272,13 @@
         <v>114300</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4293,13 @@
         <v>118266</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>52</v>
@@ -4332,13 +4308,13 @@
         <v>55292</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>161</v>
@@ -4347,18 +4323,18 @@
         <v>173558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4370,13 +4346,13 @@
         <v>897</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -4385,13 +4361,13 @@
         <v>1889</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -4403,10 +4379,10 @@
         <v>17</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4397,13 @@
         <v>6105</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -4436,13 +4412,13 @@
         <v>2234</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>215</v>
+        <v>68</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M41" s="7">
         <v>7</v>
@@ -4451,13 +4427,13 @@
         <v>8338</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>102</v>
+        <v>218</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4448,13 @@
         <v>44206</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H42" s="7">
         <v>33</v>
@@ -4487,13 +4463,13 @@
         <v>36364</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M42" s="7">
         <v>74</v>
@@ -4502,13 +4478,13 @@
         <v>80570</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4499,13 @@
         <v>45073</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H43" s="7">
         <v>44</v>
@@ -4538,13 +4514,13 @@
         <v>47065</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M43" s="7">
         <v>90</v>
@@ -4553,13 +4529,13 @@
         <v>92139</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4550,13 @@
         <v>175690</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H44" s="7">
         <v>90</v>
@@ -4589,13 +4565,13 @@
         <v>94613</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M44" s="7">
         <v>250</v>
@@ -4604,13 +4580,13 @@
         <v>270302</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4601,13 @@
         <v>271971</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>171</v>
@@ -4640,13 +4616,13 @@
         <v>182165</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>424</v>
@@ -4655,18 +4631,18 @@
         <v>454136</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4678,13 +4654,13 @@
         <v>2044</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>245</v>
+        <v>105</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4693,13 +4669,13 @@
         <v>1046</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -4708,13 +4684,13 @@
         <v>3091</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4705,13 @@
         <v>8188</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H47" s="7">
         <v>9</v>
@@ -4744,13 +4720,13 @@
         <v>9615</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
@@ -4759,13 +4735,13 @@
         <v>17802</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4756,13 @@
         <v>45822</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H48" s="7">
         <v>35</v>
@@ -4795,13 +4771,13 @@
         <v>38758</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="M48" s="7">
         <v>79</v>
@@ -4810,13 +4786,13 @@
         <v>84580</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4807,13 @@
         <v>131195</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H49" s="7">
         <v>73</v>
@@ -4846,13 +4822,13 @@
         <v>79492</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M49" s="7">
         <v>195</v>
@@ -4861,13 +4837,13 @@
         <v>210687</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4858,13 @@
         <v>174983</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H50" s="7">
         <v>116</v>
@@ -4897,13 +4873,13 @@
         <v>128748</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M50" s="7">
         <v>277</v>
@@ -4912,13 +4888,13 @@
         <v>303730</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4909,13 @@
         <v>362232</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H51" s="7">
         <v>234</v>
@@ -4948,13 +4924,13 @@
         <v>257659</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M51" s="7">
         <v>571</v>
@@ -4963,13 +4939,13 @@
         <v>619890</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4962,13 @@
         <v>6250</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H52" s="7">
         <v>6</v>
@@ -5001,13 +4977,13 @@
         <v>6176</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M52" s="7">
         <v>12</v>
@@ -5016,13 +4992,13 @@
         <v>12425</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5013,13 @@
         <v>21970</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H53" s="7">
         <v>20</v>
@@ -5052,13 +5028,13 @@
         <v>21279</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="M53" s="7">
         <v>41</v>
@@ -5067,13 +5043,13 @@
         <v>43249</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5064,13 @@
         <v>163687</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H54" s="7">
         <v>131</v>
@@ -5103,13 +5079,13 @@
         <v>141189</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M54" s="7">
         <v>286</v>
@@ -5118,13 +5094,13 @@
         <v>304876</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,10 +5115,10 @@
         <v>313553</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>313</v>
@@ -5160,7 +5136,7 @@
         <v>315</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="M55" s="7">
         <v>502</v>
@@ -5169,13 +5145,13 @@
         <v>529161</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5166,13 @@
         <v>914292</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H56" s="7">
         <v>513</v>
@@ -5205,13 +5181,13 @@
         <v>560283</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M56" s="7">
         <v>1365</v>
@@ -5220,13 +5196,13 @@
         <v>1474576</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5217,13 @@
         <v>1419752</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H57" s="7">
         <v>873</v>
@@ -5256,13 +5232,13 @@
         <v>944535</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M57" s="7">
         <v>2206</v>
@@ -5271,18 +5247,18 @@
         <v>2364287</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5306,7 +5282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76BC7FB-1A5F-4B87-A994-A20247AFFDFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3566B9-E25B-42DA-934E-61ACD2A277F6}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5323,7 +5299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5430,13 +5406,13 @@
         <v>1022</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5463,7 +5439,7 @@
         <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>336</v>
@@ -5511,13 +5487,13 @@
         <v>8809</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5508,13 @@
         <v>22532</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -5547,13 +5523,13 @@
         <v>8322</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -5562,13 +5538,13 @@
         <v>30854</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>161</v>
+        <v>351</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5559,13 @@
         <v>27238</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -5598,13 +5574,13 @@
         <v>25015</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -5613,13 +5589,13 @@
         <v>52253</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5610,13 @@
         <v>78453</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -5649,13 +5625,13 @@
         <v>62778</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M8" s="7">
         <v>131</v>
@@ -5664,13 +5640,13 @@
         <v>141231</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5661,13 @@
         <v>136166</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -5700,13 +5676,13 @@
         <v>100975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>218</v>
@@ -5715,13 +5691,13 @@
         <v>237141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5714,13 @@
         <v>1087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5753,13 +5729,13 @@
         <v>985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5768,13 +5744,13 @@
         <v>2072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5765,13 @@
         <v>2068</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>100</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5804,13 +5780,13 @@
         <v>1109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5819,13 +5795,13 @@
         <v>3177</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5816,13 @@
         <v>27347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -5855,13 +5831,13 @@
         <v>11195</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -5870,13 +5846,13 @@
         <v>38542</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5867,13 @@
         <v>46320</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -5906,13 +5882,13 @@
         <v>26031</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -5921,13 +5897,13 @@
         <v>72350</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5918,13 @@
         <v>93475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>71</v>
@@ -5957,13 +5933,13 @@
         <v>74361</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>155</v>
@@ -5972,13 +5948,13 @@
         <v>167836</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5969,13 @@
         <v>170297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -6008,13 +5984,13 @@
         <v>113680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>266</v>
@@ -6023,18 +5999,18 @@
         <v>283977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6046,13 +6022,13 @@
         <v>2512</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6061,13 +6037,13 @@
         <v>1898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -6076,13 +6052,13 @@
         <v>4410</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,7 +6079,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6112,13 +6088,13 @@
         <v>902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>33</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -6127,13 +6103,13 @@
         <v>902</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6124,13 @@
         <v>10563</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -6163,13 +6139,13 @@
         <v>8949</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>418</v>
+        <v>216</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -6178,13 +6154,13 @@
         <v>19512</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6175,13 @@
         <v>41417</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -6214,13 +6190,13 @@
         <v>26870</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -6229,13 +6205,13 @@
         <v>68287</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6226,13 @@
         <v>71892</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>168</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -6265,13 +6241,13 @@
         <v>45714</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>123</v>
@@ -6280,13 +6256,13 @@
         <v>117606</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6277,13 @@
         <v>126384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6316,13 +6292,13 @@
         <v>84333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -6331,18 +6307,18 @@
         <v>210717</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6354,13 +6330,13 @@
         <v>1064</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>439</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6369,13 +6345,13 @@
         <v>1115</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6384,13 +6360,13 @@
         <v>2179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,13 +6381,13 @@
         <v>2546</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>445</v>
+        <v>111</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6426,7 +6402,7 @@
         <v>24</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>446</v>
+        <v>62</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -6435,13 +6411,13 @@
         <v>2546</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6432,13 @@
         <v>6556</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>105</v>
+        <v>449</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>448</v>
+        <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -6471,13 +6447,13 @@
         <v>11060</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -6486,13 +6462,13 @@
         <v>17616</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>455</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,10 +6501,10 @@
         <v>459</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -6537,13 +6513,13 @@
         <v>19129</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,13 +6534,13 @@
         <v>87969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -6573,13 +6549,13 @@
         <v>64600</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M26" s="7">
         <v>146</v>
@@ -6588,13 +6564,13 @@
         <v>152568</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,13 +6585,13 @@
         <v>112180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -6624,13 +6600,13 @@
         <v>81859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -6639,18 +6615,18 @@
         <v>194039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6668,7 +6644,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6683,7 +6659,7 @@
         <v>24</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -6692,13 +6668,13 @@
         <v>957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,7 +6695,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>446</v>
+        <v>62</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6734,7 +6710,7 @@
         <v>24</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6749,7 +6725,7 @@
         <v>24</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,13 +6740,13 @@
         <v>13870</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>480</v>
+        <v>362</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -6917,13 +6893,13 @@
         <v>80930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>59</v>
@@ -6932,13 +6908,13 @@
         <v>55418</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>138</v>
@@ -6947,18 +6923,18 @@
         <v>136348</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7039,10 +7015,10 @@
         <v>512</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -7051,13 +7027,13 @@
         <v>18228</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,13 +7048,13 @@
         <v>22093</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -7087,13 +7063,13 @@
         <v>20510</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M36" s="7">
         <v>43</v>
@@ -7102,13 +7078,13 @@
         <v>42603</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,13 +7099,13 @@
         <v>34207</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -7138,13 +7114,13 @@
         <v>25922</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="M37" s="7">
         <v>59</v>
@@ -7153,13 +7129,13 @@
         <v>60130</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7174,13 +7150,13 @@
         <v>40790</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>536</v>
+        <v>279</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H38" s="7">
         <v>20</v>
@@ -7189,13 +7165,13 @@
         <v>20309</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M38" s="7">
         <v>59</v>
@@ -7204,13 +7180,13 @@
         <v>61099</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,13 +7201,13 @@
         <v>107502</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>77</v>
@@ -7240,13 +7216,13 @@
         <v>75568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>180</v>
@@ -7255,18 +7231,18 @@
         <v>183071</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7278,13 +7254,13 @@
         <v>12282</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>545</v>
+        <v>349</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>546</v>
+        <v>103</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H40" s="7">
         <v>8</v>
@@ -7293,13 +7269,13 @@
         <v>8209</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>548</v>
+        <v>477</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="M40" s="7">
         <v>19</v>
@@ -7308,13 +7284,13 @@
         <v>20491</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>102</v>
+        <v>546</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,13 +7305,13 @@
         <v>31042</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>554</v>
+        <v>415</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H41" s="7">
         <v>21</v>
@@ -7344,13 +7320,13 @@
         <v>21259</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M41" s="7">
         <v>48</v>
@@ -7359,13 +7335,13 @@
         <v>52300</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,13 +7356,13 @@
         <v>88241</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>564</v>
+        <v>278</v>
       </c>
       <c r="H42" s="7">
         <v>66</v>
@@ -7395,13 +7371,13 @@
         <v>67497</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="M42" s="7">
         <v>140</v>
@@ -7410,13 +7386,13 @@
         <v>155739</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,13 +7407,13 @@
         <v>86986</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>318</v>
+        <v>564</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="H43" s="7">
         <v>70</v>
@@ -7446,13 +7422,13 @@
         <v>72679</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="M43" s="7">
         <v>147</v>
@@ -7461,13 +7437,13 @@
         <v>159665</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,13 +7458,13 @@
         <v>141375</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="H44" s="7">
         <v>109</v>
@@ -7497,13 +7473,13 @@
         <v>115222</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="M44" s="7">
         <v>233</v>
@@ -7512,13 +7488,13 @@
         <v>256597</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7533,13 +7509,13 @@
         <v>359926</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>274</v>
@@ -7548,13 +7524,13 @@
         <v>284866</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>587</v>
@@ -7563,18 +7539,18 @@
         <v>644792</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7586,13 +7562,13 @@
         <v>3494</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -7601,13 +7577,13 @@
         <v>1080</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="M46" s="7">
         <v>4</v>
@@ -7616,13 +7592,13 @@
         <v>4574</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>594</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,13 +7613,13 @@
         <v>2793</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -7652,13 +7628,13 @@
         <v>2099</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -7667,13 +7643,13 @@
         <v>4892</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>589</v>
+        <v>209</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7688,13 +7664,13 @@
         <v>23038</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="H48" s="7">
         <v>24</v>
@@ -7703,13 +7679,13 @@
         <v>25295</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>603</v>
+        <v>555</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="M48" s="7">
         <v>45</v>
@@ -7718,13 +7694,13 @@
         <v>48332</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>607</v>
+        <v>459</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,13 +7715,13 @@
         <v>117078</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="H49" s="7">
         <v>77</v>
@@ -7754,13 +7730,13 @@
         <v>78354</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="M49" s="7">
         <v>192</v>
@@ -7769,13 +7745,13 @@
         <v>195431</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>494</v>
+        <v>609</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7790,13 +7766,13 @@
         <v>182535</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="H50" s="7">
         <v>127</v>
@@ -7805,13 +7781,13 @@
         <v>133644</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="M50" s="7">
         <v>300</v>
@@ -7820,13 +7796,13 @@
         <v>316179</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,13 +7817,13 @@
         <v>328937</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H51" s="7">
         <v>231</v>
@@ -7856,13 +7832,13 @@
         <v>240471</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M51" s="7">
         <v>546</v>
@@ -7871,13 +7847,13 @@
         <v>569408</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,13 +7870,13 @@
         <v>23429</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>212</v>
+        <v>619</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>67</v>
+        <v>621</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -7909,13 +7885,13 @@
         <v>16260</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>628</v>
+        <v>297</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>629</v>
+        <v>590</v>
       </c>
       <c r="M52" s="7">
         <v>37</v>
@@ -7924,13 +7900,13 @@
         <v>39689</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,13 +7921,13 @@
         <v>54773</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>632</v>
+        <v>219</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="H53" s="7">
         <v>36</v>
@@ -7960,13 +7936,13 @@
         <v>36082</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>409</v>
+        <v>216</v>
       </c>
       <c r="M53" s="7">
         <v>85</v>
@@ -7975,13 +7951,13 @@
         <v>90854</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>638</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,13 +7972,13 @@
         <v>214240</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="H54" s="7">
         <v>156</v>
@@ -8011,13 +7987,13 @@
         <v>159550</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>223</v>
+        <v>634</v>
       </c>
       <c r="M54" s="7">
         <v>348</v>
@@ -8026,13 +8002,13 @@
         <v>373791</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>463</v>
+        <v>635</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8023,13 @@
         <v>402449</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H55" s="7">
         <v>287</v>
@@ -8062,13 +8038,13 @@
         <v>288412</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="M55" s="7">
         <v>668</v>
@@ -8077,13 +8053,13 @@
         <v>690861</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>359</v>
+        <v>644</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>526</v>
+        <v>645</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8098,13 +8074,13 @@
         <v>727431</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="H56" s="7">
         <v>518</v>
@@ -8113,13 +8089,13 @@
         <v>536868</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>657</v>
+        <v>364</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="M56" s="7">
         <v>1198</v>
@@ -8128,13 +8104,13 @@
         <v>1264299</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8149,13 +8125,13 @@
         <v>1422322</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H57" s="7">
         <v>1013</v>
@@ -8164,13 +8140,13 @@
         <v>1037172</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M57" s="7">
         <v>2336</v>
@@ -8179,18 +8155,18 @@
         <v>2459494</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6715-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6162430-2E7D-4E09-874A-591CBF0083A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0065D479-8623-47C8-BB78-0C9C35E2C61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{053BF9A1-CE76-434B-9EA6-C0BC30E87074}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F395290-E6D3-4374-AE68-B18D1009B610}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="661">
   <si>
     <t>Población según si tienen sentido sus tareas del trabajo en 2012 (Tasa respuesta: 33,9%)</t>
   </si>
@@ -96,19 +96,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,27%</t>
+    <t>2,81%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>4,47%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,22%</t>
+    <t>2,51%</t>
   </si>
   <si>
     <t>0%</t>
@@ -120,1885 +120,1906 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>5,44%</t>
+    <t>4,35%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,9%</t>
+    <t>1,86%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen sentido sus tareas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen sentido sus tareas del trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
   </si>
   <si>
     <t>48,74%</t>
   </si>
   <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
+    <t>54,96%</t>
   </si>
   <si>
     <t>51,4%</t>
   </si>
   <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5D52F-08A7-4B16-80CB-22F5B440F527}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85E23C3-3ACD-45BE-8E1F-ECF1B944DC6B}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2926,10 +2947,10 @@
         <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -2938,13 +2959,13 @@
         <v>14526</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2980,13 @@
         <v>20495</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2974,13 +2995,13 @@
         <v>17995</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -2989,13 +3010,13 @@
         <v>38490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3031,13 @@
         <v>142953</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -3025,13 +3046,13 @@
         <v>95798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7">
         <v>219</v>
@@ -3040,13 +3061,13 @@
         <v>238750</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3082,13 @@
         <v>172240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>111</v>
@@ -3076,13 +3097,13 @@
         <v>122688</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>272</v>
@@ -3091,18 +3112,18 @@
         <v>294928</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3120,7 +3141,7 @@
         <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3129,13 +3150,13 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3144,13 +3165,13 @@
         <v>986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3186,13 @@
         <v>5600</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3186,7 +3207,7 @@
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -3195,13 +3216,13 @@
         <v>5600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3237,13 @@
         <v>17179</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -3231,13 +3252,13 @@
         <v>19862</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -3246,13 +3267,13 @@
         <v>37041</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3288,13 @@
         <v>37722</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3282,13 +3303,13 @@
         <v>21194</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -3297,13 +3318,13 @@
         <v>58915</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3339,13 @@
         <v>82700</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -3333,13 +3354,13 @@
         <v>39345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -3348,13 +3369,13 @@
         <v>122044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3390,13 @@
         <v>143201</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>77</v>
@@ -3384,13 +3405,13 @@
         <v>81386</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>222</v>
@@ -3399,18 +3420,18 @@
         <v>224586</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3422,13 +3443,13 @@
         <v>1211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3437,13 +3458,13 @@
         <v>1176</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3452,13 +3473,13 @@
         <v>2387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3494,13 @@
         <v>1041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3488,13 +3509,13 @@
         <v>4227</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3503,13 +3524,13 @@
         <v>5269</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3545,13 @@
         <v>28908</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -3539,13 +3560,13 @@
         <v>19904</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -3554,13 +3575,13 @@
         <v>48812</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3596,13 @@
         <v>46082</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -3590,13 +3611,13 @@
         <v>18458</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>61</v>
@@ -3605,13 +3626,13 @@
         <v>64540</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3647,13 @@
         <v>192287</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H26" s="7">
         <v>132</v>
@@ -3641,13 +3662,13 @@
         <v>145945</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>314</v>
@@ -3656,13 +3677,13 @@
         <v>338232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3698,13 @@
         <v>269529</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>174</v>
@@ -3692,13 +3713,13 @@
         <v>189711</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>427</v>
@@ -3707,18 +3728,18 @@
         <v>459240</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3730,13 +3751,13 @@
         <v>1051</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3751,7 +3772,7 @@
         <v>24</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3760,13 +3781,13 @@
         <v>1051</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,7 +3808,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3796,13 +3817,13 @@
         <v>3084</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -3811,13 +3832,13 @@
         <v>3084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3853,13 @@
         <v>7152</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -3847,13 +3868,13 @@
         <v>13549</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -3862,13 +3883,13 @@
         <v>20701</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3904,13 @@
         <v>11242</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -3898,13 +3919,13 @@
         <v>14655</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -3913,13 +3934,13 @@
         <v>25897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3955,13 @@
         <v>62870</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -3949,13 +3970,13 @@
         <v>24346</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
@@ -3964,13 +3985,13 @@
         <v>87215</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +4006,13 @@
         <v>82314</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>54</v>
@@ -4000,13 +4021,13 @@
         <v>55634</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>129</v>
@@ -4015,18 +4036,18 @@
         <v>137947</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4044,7 +4065,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4059,7 +4080,7 @@
         <v>24</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4095,7 +4116,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4104,13 +4125,13 @@
         <v>1083</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -4119,13 +4140,13 @@
         <v>2119</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4161,13 @@
         <v>12675</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -4155,10 +4176,10 @@
         <v>5971</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>187</v>
@@ -4173,10 +4194,10 @@
         <v>188</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4212,13 @@
         <v>21744</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -4206,13 +4227,13 @@
         <v>16749</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M37" s="7">
         <v>36</v>
@@ -4221,13 +4242,13 @@
         <v>38493</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4263,13 @@
         <v>82811</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H38" s="7">
         <v>28</v>
@@ -4257,13 +4278,13 @@
         <v>31489</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M38" s="7">
         <v>104</v>
@@ -4272,13 +4293,13 @@
         <v>114300</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4314,13 @@
         <v>118266</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>52</v>
@@ -4308,13 +4329,13 @@
         <v>55292</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>161</v>
@@ -4323,18 +4344,18 @@
         <v>173558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4346,13 +4367,13 @@
         <v>897</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -4361,13 +4382,13 @@
         <v>1889</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -4379,10 +4400,10 @@
         <v>17</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4418,13 @@
         <v>6105</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -4412,13 +4433,13 @@
         <v>2234</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M41" s="7">
         <v>7</v>
@@ -4427,13 +4448,13 @@
         <v>8338</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4469,13 @@
         <v>44206</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H42" s="7">
         <v>33</v>
@@ -4463,13 +4484,13 @@
         <v>36364</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M42" s="7">
         <v>74</v>
@@ -4478,13 +4499,13 @@
         <v>80570</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4520,13 @@
         <v>45073</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H43" s="7">
         <v>44</v>
@@ -4514,13 +4535,13 @@
         <v>47065</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M43" s="7">
         <v>90</v>
@@ -4529,13 +4550,13 @@
         <v>92139</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4571,13 @@
         <v>175690</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H44" s="7">
         <v>90</v>
@@ -4565,13 +4586,13 @@
         <v>94613</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M44" s="7">
         <v>250</v>
@@ -4580,13 +4601,13 @@
         <v>270302</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4622,13 @@
         <v>271971</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H45" s="7">
         <v>171</v>
@@ -4616,13 +4637,13 @@
         <v>182165</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M45" s="7">
         <v>424</v>
@@ -4631,18 +4652,18 @@
         <v>454136</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4654,13 +4675,13 @@
         <v>2044</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4669,13 +4690,13 @@
         <v>1046</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -4684,13 +4705,13 @@
         <v>3091</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,13 +4726,13 @@
         <v>8188</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H47" s="7">
         <v>9</v>
@@ -4720,13 +4741,13 @@
         <v>9615</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
@@ -4735,13 +4756,13 @@
         <v>17802</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4777,13 @@
         <v>45822</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H48" s="7">
         <v>35</v>
@@ -4771,13 +4792,13 @@
         <v>38758</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M48" s="7">
         <v>79</v>
@@ -4786,13 +4807,13 @@
         <v>84580</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4828,13 @@
         <v>131195</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H49" s="7">
         <v>73</v>
@@ -4822,13 +4843,13 @@
         <v>79492</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M49" s="7">
         <v>195</v>
@@ -4837,13 +4858,13 @@
         <v>210687</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4879,13 @@
         <v>174983</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H50" s="7">
         <v>116</v>
@@ -4873,13 +4894,13 @@
         <v>128748</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M50" s="7">
         <v>277</v>
@@ -4888,13 +4909,13 @@
         <v>303730</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4930,13 @@
         <v>362232</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H51" s="7">
         <v>234</v>
@@ -4924,13 +4945,13 @@
         <v>257659</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M51" s="7">
         <v>571</v>
@@ -4939,13 +4960,13 @@
         <v>619890</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,10 +4983,10 @@
         <v>6250</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>290</v>
@@ -4977,13 +4998,13 @@
         <v>6176</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K52" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="L52" s="7" t="s">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="M52" s="7">
         <v>12</v>
@@ -4992,13 +5013,13 @@
         <v>12425</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>294</v>
+        <v>108</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5034,13 @@
         <v>21970</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>298</v>
+        <v>34</v>
       </c>
       <c r="H53" s="7">
         <v>20</v>
@@ -5028,13 +5049,13 @@
         <v>21279</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>139</v>
+        <v>298</v>
       </c>
       <c r="M53" s="7">
         <v>41</v>
@@ -5043,13 +5064,13 @@
         <v>43249</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5085,13 @@
         <v>163687</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H54" s="7">
         <v>131</v>
@@ -5079,13 +5100,13 @@
         <v>141189</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M54" s="7">
         <v>286</v>
@@ -5094,13 +5115,13 @@
         <v>304876</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5136,13 @@
         <v>313553</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H55" s="7">
         <v>203</v>
@@ -5130,13 +5151,13 @@
         <v>215608</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M55" s="7">
         <v>502</v>
@@ -5145,13 +5166,13 @@
         <v>529161</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5187,13 @@
         <v>914292</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H56" s="7">
         <v>513</v>
@@ -5181,13 +5202,13 @@
         <v>560283</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M56" s="7">
         <v>1365</v>
@@ -5196,13 +5217,13 @@
         <v>1474576</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5238,13 @@
         <v>1419752</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H57" s="7">
         <v>873</v>
@@ -5232,13 +5253,13 @@
         <v>944535</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M57" s="7">
         <v>2206</v>
@@ -5247,18 +5268,18 @@
         <v>2364287</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5282,7 +5303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3566B9-E25B-42DA-934E-61ACD2A277F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC252F7A-44B4-457F-B271-061FC7BA1BFA}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5299,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5406,13 +5427,13 @@
         <v>1022</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5439,10 +5460,10 @@
         <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>61</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,10 +5478,10 @@
         <v>6922</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>339</v>
@@ -5493,7 +5514,7 @@
         <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5529,13 @@
         <v>22532</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -5523,13 +5544,13 @@
         <v>8322</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -5538,13 +5559,13 @@
         <v>30854</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5580,13 @@
         <v>27238</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -5574,13 +5595,13 @@
         <v>25015</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -5589,13 +5610,13 @@
         <v>52253</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5631,13 @@
         <v>78453</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -5625,13 +5646,13 @@
         <v>62778</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M8" s="7">
         <v>131</v>
@@ -5640,13 +5661,13 @@
         <v>141231</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5682,13 @@
         <v>136166</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -5676,13 +5697,13 @@
         <v>100975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>218</v>
@@ -5691,13 +5712,13 @@
         <v>237141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5735,13 @@
         <v>1087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>370</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5729,13 +5750,13 @@
         <v>985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5744,13 +5765,13 @@
         <v>2072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5786,13 @@
         <v>2068</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>377</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5780,13 +5801,13 @@
         <v>1109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5795,13 +5816,13 @@
         <v>3177</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5837,13 @@
         <v>27347</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -5831,13 +5852,13 @@
         <v>11195</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -5846,13 +5867,13 @@
         <v>38542</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5888,13 @@
         <v>46320</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -5882,13 +5903,13 @@
         <v>26031</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -5897,13 +5918,13 @@
         <v>72350</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5939,13 @@
         <v>93475</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>71</v>
@@ -5933,13 +5954,13 @@
         <v>74361</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>155</v>
@@ -5948,13 +5969,13 @@
         <v>167836</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5990,13 @@
         <v>170297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -5984,13 +6005,13 @@
         <v>113680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>266</v>
@@ -5999,18 +6020,18 @@
         <v>283977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6022,13 +6043,13 @@
         <v>2512</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6037,13 +6058,13 @@
         <v>1898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -6052,13 +6073,13 @@
         <v>4410</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,7 +6100,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6088,13 +6109,13 @@
         <v>902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -6103,13 +6124,13 @@
         <v>902</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>336</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6145,13 @@
         <v>10563</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -6139,13 +6160,13 @@
         <v>8949</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -6154,13 +6175,13 @@
         <v>19512</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6196,13 @@
         <v>41417</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -6190,13 +6211,13 @@
         <v>26870</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>430</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>431</v>
+        <v>204</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -6205,13 +6226,13 @@
         <v>68287</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6247,13 @@
         <v>71892</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -6241,13 +6262,13 @@
         <v>45714</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>123</v>
@@ -6256,13 +6277,13 @@
         <v>117606</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6298,13 @@
         <v>126384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6292,13 +6313,13 @@
         <v>84333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -6307,18 +6328,18 @@
         <v>210717</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6330,7 +6351,7 @@
         <v>1064</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>442</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>18</v>
@@ -6360,7 +6381,7 @@
         <v>2179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>18</v>
@@ -6387,7 +6408,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>448</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6402,7 +6423,7 @@
         <v>24</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>62</v>
+        <v>449</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -6411,13 +6432,13 @@
         <v>2546</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6453,13 @@
         <v>6556</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -6447,13 +6468,13 @@
         <v>11060</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -6462,13 +6483,13 @@
         <v>17616</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>224</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6504,13 @@
         <v>14045</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -6498,13 +6519,13 @@
         <v>5084</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>460</v>
+        <v>67</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -6513,13 +6534,13 @@
         <v>19129</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,13 +6555,13 @@
         <v>87969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -6549,13 +6570,13 @@
         <v>64600</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
         <v>146</v>
@@ -6564,13 +6585,13 @@
         <v>152568</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6606,13 @@
         <v>112180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -6600,13 +6621,13 @@
         <v>81859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -6615,18 +6636,18 @@
         <v>194039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6644,7 +6665,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6659,7 +6680,7 @@
         <v>24</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -6668,13 +6689,13 @@
         <v>957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,7 +6716,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>62</v>
+        <v>449</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6710,7 +6731,7 @@
         <v>24</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6725,7 +6746,7 @@
         <v>24</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>478</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6761,13 @@
         <v>13870</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>479</v>
+        <v>163</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>362</v>
+        <v>482</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -6755,13 +6776,13 @@
         <v>6723</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -6770,13 +6791,13 @@
         <v>20593</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6812,13 @@
         <v>35160</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
@@ -6806,13 +6827,13 @@
         <v>28456</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M31" s="7">
         <v>66</v>
@@ -6821,13 +6842,13 @@
         <v>63616</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,13 +6863,13 @@
         <v>30944</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -6857,13 +6878,13 @@
         <v>20238</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M32" s="7">
         <v>51</v>
@@ -6872,13 +6893,13 @@
         <v>51182</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6914,13 @@
         <v>80930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>59</v>
@@ -6908,13 +6929,13 @@
         <v>55418</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>138</v>
@@ -6923,18 +6944,18 @@
         <v>136348</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6946,13 +6967,13 @@
         <v>1011</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>505</v>
+        <v>295</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6967,7 +6988,7 @@
         <v>24</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6976,13 +6997,13 @@
         <v>1011</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +7018,13 @@
         <v>9402</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -7012,13 +7033,13 @@
         <v>8827</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -7027,13 +7048,13 @@
         <v>18228</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>183</v>
+        <v>517</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +7069,13 @@
         <v>22093</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -7063,13 +7084,13 @@
         <v>20510</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M36" s="7">
         <v>43</v>
@@ -7078,13 +7099,13 @@
         <v>42603</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7120,13 @@
         <v>34207</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -7114,13 +7135,13 @@
         <v>25922</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="M37" s="7">
         <v>59</v>
@@ -7129,13 +7150,13 @@
         <v>60130</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7171,13 @@
         <v>40790</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>279</v>
+        <v>537</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H38" s="7">
         <v>20</v>
@@ -7165,13 +7186,13 @@
         <v>20309</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="M38" s="7">
         <v>59</v>
@@ -7180,13 +7201,13 @@
         <v>61099</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7222,13 @@
         <v>107502</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>77</v>
@@ -7216,13 +7237,13 @@
         <v>75568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>180</v>
@@ -7231,18 +7252,18 @@
         <v>183071</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7254,13 +7275,13 @@
         <v>12282</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>349</v>
+        <v>546</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>103</v>
+        <v>547</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H40" s="7">
         <v>8</v>
@@ -7269,13 +7290,13 @@
         <v>8209</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>477</v>
+        <v>549</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="M40" s="7">
         <v>19</v>
@@ -7284,13 +7305,13 @@
         <v>20491</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7326,13 @@
         <v>31042</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>415</v>
+        <v>217</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H41" s="7">
         <v>21</v>
@@ -7320,13 +7341,13 @@
         <v>21259</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="M41" s="7">
         <v>48</v>
@@ -7335,13 +7356,13 @@
         <v>52300</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>553</v>
+        <v>409</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,13 +7377,13 @@
         <v>88241</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>278</v>
+        <v>564</v>
       </c>
       <c r="H42" s="7">
         <v>66</v>
@@ -7371,13 +7392,13 @@
         <v>67497</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="M42" s="7">
         <v>140</v>
@@ -7386,13 +7407,13 @@
         <v>155739</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7428,13 @@
         <v>86986</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="H43" s="7">
         <v>70</v>
@@ -7422,13 +7443,13 @@
         <v>72679</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="M43" s="7">
         <v>147</v>
@@ -7437,13 +7458,13 @@
         <v>159665</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7479,13 @@
         <v>141375</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="H44" s="7">
         <v>109</v>
@@ -7473,13 +7494,13 @@
         <v>115222</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="M44" s="7">
         <v>233</v>
@@ -7488,13 +7509,13 @@
         <v>256597</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>581</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7530,13 @@
         <v>359926</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H45" s="7">
         <v>274</v>
@@ -7524,13 +7545,13 @@
         <v>284866</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M45" s="7">
         <v>587</v>
@@ -7539,18 +7560,18 @@
         <v>644792</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7562,13 +7583,13 @@
         <v>3494</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -7577,13 +7598,13 @@
         <v>1080</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="M46" s="7">
         <v>4</v>
@@ -7592,13 +7613,13 @@
         <v>4574</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>587</v>
+        <v>214</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>340</v>
+        <v>593</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,13 +7634,13 @@
         <v>2793</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>590</v>
+        <v>106</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -7628,13 +7649,13 @@
         <v>2099</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -7643,13 +7664,13 @@
         <v>4892</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,13 +7685,13 @@
         <v>23038</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>595</v>
+        <v>417</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H48" s="7">
         <v>24</v>
@@ -7679,13 +7700,13 @@
         <v>25295</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>598</v>
+        <v>486</v>
       </c>
       <c r="M48" s="7">
         <v>45</v>
@@ -7694,13 +7715,13 @@
         <v>48332</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>459</v>
+        <v>604</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,13 +7736,13 @@
         <v>117078</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="H49" s="7">
         <v>77</v>
@@ -7730,13 +7751,13 @@
         <v>78354</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="M49" s="7">
         <v>192</v>
@@ -7745,13 +7766,13 @@
         <v>195431</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7787,13 @@
         <v>182535</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="H50" s="7">
         <v>127</v>
@@ -7781,13 +7802,13 @@
         <v>133644</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>615</v>
+        <v>400</v>
       </c>
       <c r="M50" s="7">
         <v>300</v>
@@ -7796,13 +7817,13 @@
         <v>316179</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7838,13 @@
         <v>328937</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H51" s="7">
         <v>231</v>
@@ -7832,13 +7853,13 @@
         <v>240471</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M51" s="7">
         <v>546</v>
@@ -7847,13 +7868,13 @@
         <v>569408</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,13 +7891,13 @@
         <v>23429</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>621</v>
+        <v>111</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -7885,13 +7906,13 @@
         <v>16260</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>297</v>
+        <v>626</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="M52" s="7">
         <v>37</v>
@@ -7900,13 +7921,13 @@
         <v>39689</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>623</v>
+        <v>147</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>99</v>
+        <v>629</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,13 +7942,13 @@
         <v>54773</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>219</v>
+        <v>630</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="H53" s="7">
         <v>36</v>
@@ -7936,13 +7957,13 @@
         <v>36082</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>216</v>
+        <v>633</v>
       </c>
       <c r="M53" s="7">
         <v>85</v>
@@ -7951,13 +7972,13 @@
         <v>90854</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>628</v>
+        <v>213</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>625</v>
+        <v>379</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>448</v>
+        <v>634</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,13 +7993,13 @@
         <v>214240</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="H54" s="7">
         <v>156</v>
@@ -7987,13 +8008,13 @@
         <v>159550</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="M54" s="7">
         <v>348</v>
@@ -8002,13 +8023,13 @@
         <v>373791</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8044,13 @@
         <v>402449</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="H55" s="7">
         <v>287</v>
@@ -8038,13 +8059,13 @@
         <v>288412</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="M55" s="7">
         <v>668</v>
@@ -8053,13 +8074,13 @@
         <v>690861</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>645</v>
+        <v>527</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,13 +8095,13 @@
         <v>727431</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="H56" s="7">
         <v>518</v>
@@ -8089,13 +8110,13 @@
         <v>536868</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>364</v>
+        <v>656</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="M56" s="7">
         <v>1198</v>
@@ -8104,13 +8125,13 @@
         <v>1264299</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,13 +8146,13 @@
         <v>1422322</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H57" s="7">
         <v>1013</v>
@@ -8140,13 +8161,13 @@
         <v>1037172</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M57" s="7">
         <v>2336</v>
@@ -8155,18 +8176,18 @@
         <v>2459494</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6715-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0065D479-8623-47C8-BB78-0C9C35E2C61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36BC923-7EEE-41E5-A774-9D78A546B250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F395290-E6D3-4374-AE68-B18D1009B610}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E32E91D1-5558-4FDE-8A73-ADDA649FE515}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="662">
   <si>
     <t>Población según si tienen sentido sus tareas del trabajo en 2012 (Tasa respuesta: 33,9%)</t>
   </si>
@@ -96,19 +96,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>3,48%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>4,47%</t>
+    <t>3,63%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,51%</t>
+    <t>2,37%</t>
   </si>
   <si>
     <t>0%</t>
@@ -120,1906 +120,1909 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,35%</t>
+    <t>4,73%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,86%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
   </si>
   <si>
     <t>14,67%</t>
   </si>
   <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen sentido sus tareas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen sentido sus tareas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>28,3%</t>
   </si>
   <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
   </si>
   <si>
     <t>27,81%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>51,14%</t>
   </si>
   <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
   </si>
   <si>
     <t>51,76%</t>
   </si>
   <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
   </si>
   <si>
     <t>51,4%</t>
   </si>
   <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
   </si>
 </sst>
 </file>
@@ -2431,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85E23C3-3ACD-45BE-8E1F-ECF1B944DC6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001585CF-C693-4B78-AC56-144A4D89B261}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3189,10 +3192,10 @@
         <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3207,7 +3210,7 @@
         <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -3216,13 +3219,13 @@
         <v>5600</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3240,13 @@
         <v>17179</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -3252,13 +3255,13 @@
         <v>19862</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -3267,13 +3270,13 @@
         <v>37041</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3291,13 @@
         <v>37722</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3303,13 +3306,13 @@
         <v>21194</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -3318,13 +3321,13 @@
         <v>58915</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3342,13 @@
         <v>82700</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -3354,13 +3357,13 @@
         <v>39345</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -3369,13 +3372,13 @@
         <v>122044</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,7 +3434,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3443,13 +3446,13 @@
         <v>1211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3458,13 +3461,13 @@
         <v>1176</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3473,13 +3476,13 @@
         <v>2387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3497,13 @@
         <v>1041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3509,13 +3512,13 @@
         <v>4227</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3524,13 +3527,13 @@
         <v>5269</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3548,13 @@
         <v>28908</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -3560,13 +3563,13 @@
         <v>19904</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -3575,13 +3578,13 @@
         <v>48812</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3599,13 @@
         <v>46082</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -3611,13 +3614,13 @@
         <v>18458</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>61</v>
@@ -3626,13 +3629,13 @@
         <v>64540</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3650,13 @@
         <v>192287</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
         <v>132</v>
@@ -3662,13 +3665,13 @@
         <v>145945</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M26" s="7">
         <v>314</v>
@@ -3677,13 +3680,13 @@
         <v>338232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,7 +3742,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3751,13 +3754,13 @@
         <v>1051</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3772,7 +3775,7 @@
         <v>24</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3781,13 +3784,13 @@
         <v>1051</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,7 +3811,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3817,13 +3820,13 @@
         <v>3084</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -3832,13 +3835,13 @@
         <v>3084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3856,13 @@
         <v>7152</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -3868,13 +3871,13 @@
         <v>13549</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -3883,13 +3886,13 @@
         <v>20701</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3907,13 @@
         <v>11242</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -3919,13 +3922,13 @@
         <v>14655</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -3934,13 +3937,13 @@
         <v>25897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3958,13 @@
         <v>62870</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -3970,13 +3973,13 @@
         <v>24346</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
@@ -3985,13 +3988,13 @@
         <v>87215</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +4050,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4065,7 +4068,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4080,7 +4083,7 @@
         <v>24</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4116,7 +4119,7 @@
         <v>18</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4125,13 +4128,13 @@
         <v>1083</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -4140,13 +4143,13 @@
         <v>2119</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4164,13 @@
         <v>12675</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -4176,13 +4179,13 @@
         <v>5971</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M36" s="7">
         <v>19</v>
@@ -4191,13 +4194,13 @@
         <v>18646</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4215,13 @@
         <v>21744</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -4227,13 +4230,13 @@
         <v>16749</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M37" s="7">
         <v>36</v>
@@ -4242,13 +4245,13 @@
         <v>38493</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4266,13 @@
         <v>82811</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H38" s="7">
         <v>28</v>
@@ -4278,13 +4281,13 @@
         <v>31489</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M38" s="7">
         <v>104</v>
@@ -4293,13 +4296,13 @@
         <v>114300</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,7 +4358,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4367,13 +4370,13 @@
         <v>897</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -4382,13 +4385,13 @@
         <v>1889</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -4400,10 +4403,10 @@
         <v>17</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4421,13 @@
         <v>6105</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -4433,13 +4436,13 @@
         <v>2234</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M41" s="7">
         <v>7</v>
@@ -4448,13 +4451,13 @@
         <v>8338</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4472,13 @@
         <v>44206</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H42" s="7">
         <v>33</v>
@@ -4484,13 +4487,13 @@
         <v>36364</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M42" s="7">
         <v>74</v>
@@ -4499,13 +4502,13 @@
         <v>80570</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4523,13 @@
         <v>45073</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H43" s="7">
         <v>44</v>
@@ -4535,13 +4538,13 @@
         <v>47065</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M43" s="7">
         <v>90</v>
@@ -4550,13 +4553,13 @@
         <v>92139</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4574,13 @@
         <v>175690</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H44" s="7">
         <v>90</v>
@@ -4586,13 +4589,13 @@
         <v>94613</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M44" s="7">
         <v>250</v>
@@ -4601,13 +4604,13 @@
         <v>270302</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,7 +4666,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4675,13 +4678,13 @@
         <v>2044</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4690,13 +4693,13 @@
         <v>1046</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -4705,13 +4708,13 @@
         <v>3091</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4729,13 @@
         <v>8188</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H47" s="7">
         <v>9</v>
@@ -4741,13 +4744,13 @@
         <v>9615</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
@@ -4756,13 +4759,13 @@
         <v>17802</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4780,13 @@
         <v>45822</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H48" s="7">
         <v>35</v>
@@ -4792,13 +4795,13 @@
         <v>38758</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="M48" s="7">
         <v>79</v>
@@ -4807,13 +4810,13 @@
         <v>84580</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4831,13 @@
         <v>131195</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H49" s="7">
         <v>73</v>
@@ -4843,13 +4846,13 @@
         <v>79492</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M49" s="7">
         <v>195</v>
@@ -4858,13 +4861,13 @@
         <v>210687</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4882,13 @@
         <v>174983</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H50" s="7">
         <v>116</v>
@@ -4894,13 +4897,13 @@
         <v>128748</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M50" s="7">
         <v>277</v>
@@ -4909,13 +4912,13 @@
         <v>303730</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,10 +4989,10 @@
         <v>62</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H52" s="7">
         <v>6</v>
@@ -4998,13 +5001,13 @@
         <v>6176</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c r="M52" s="7">
         <v>12</v>
@@ -5013,13 +5016,13 @@
         <v>12425</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="P52" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5037,13 @@
         <v>21970</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H53" s="7">
         <v>20</v>
@@ -5103,10 +5106,10 @@
         <v>305</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M54" s="7">
         <v>286</v>
@@ -5115,13 +5118,13 @@
         <v>304876</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5139,13 @@
         <v>313553</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H55" s="7">
         <v>203</v>
@@ -5151,13 +5154,13 @@
         <v>215608</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="M55" s="7">
         <v>502</v>
@@ -5303,7 +5306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC252F7A-44B4-457F-B271-061FC7BA1BFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99316C0A-9CE4-45A2-971F-D82E1370FCA2}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5460,10 +5463,10 @@
         <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,10 +5481,10 @@
         <v>6922</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>339</v>
@@ -5508,13 +5511,13 @@
         <v>8809</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5532,13 @@
         <v>22532</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -5544,13 +5547,13 @@
         <v>8322</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -5559,13 +5562,13 @@
         <v>30854</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5583,13 @@
         <v>27238</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -5595,13 +5598,13 @@
         <v>25015</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -5610,13 +5613,13 @@
         <v>52253</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5634,13 @@
         <v>78453</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -5646,13 +5649,13 @@
         <v>62778</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>131</v>
@@ -5661,13 +5664,13 @@
         <v>141231</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5738,13 @@
         <v>1087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5771,7 +5774,7 @@
         <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,7 +5795,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5801,13 +5804,13 @@
         <v>1109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5816,13 +5819,13 @@
         <v>3177</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5840,13 @@
         <v>27347</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -5852,13 +5855,13 @@
         <v>11195</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -5867,13 +5870,13 @@
         <v>38542</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5891,13 @@
         <v>46320</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -5903,13 +5906,13 @@
         <v>26031</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -5918,13 +5921,13 @@
         <v>72350</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5942,13 @@
         <v>93475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
         <v>71</v>
@@ -5954,13 +5957,13 @@
         <v>74361</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M14" s="7">
         <v>155</v>
@@ -5969,13 +5972,13 @@
         <v>167836</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6046,13 @@
         <v>2512</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6064,7 +6067,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -6073,13 +6076,13 @@
         <v>4410</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,7 +6103,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6109,13 +6112,13 @@
         <v>902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>33</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -6124,13 +6127,13 @@
         <v>902</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>336</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6148,13 @@
         <v>10563</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -6160,13 +6163,13 @@
         <v>8949</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -6175,13 +6178,13 @@
         <v>19512</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6199,13 @@
         <v>41417</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -6211,13 +6214,13 @@
         <v>26870</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -6226,13 +6229,13 @@
         <v>68287</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6250,13 @@
         <v>71892</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -6262,13 +6265,13 @@
         <v>45714</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>123</v>
@@ -6277,13 +6280,13 @@
         <v>117606</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,7 +6342,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6351,13 +6354,13 @@
         <v>1064</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6366,13 +6369,13 @@
         <v>1115</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6381,13 +6384,13 @@
         <v>2179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6405,13 @@
         <v>2546</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6423,7 +6426,7 @@
         <v>24</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -6438,7 +6441,7 @@
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6456,13 @@
         <v>6556</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>451</v>
+        <v>105</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -6468,13 +6471,13 @@
         <v>11060</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -6483,13 +6486,13 @@
         <v>17616</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6507,13 @@
         <v>14045</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -6519,13 +6522,13 @@
         <v>5084</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>67</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -6534,13 +6537,13 @@
         <v>19129</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6558,13 @@
         <v>87969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -6570,13 +6573,13 @@
         <v>64600</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M26" s="7">
         <v>146</v>
@@ -6585,13 +6588,13 @@
         <v>152568</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,7 +6650,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6665,7 +6668,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6680,7 +6683,7 @@
         <v>24</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -6689,13 +6692,13 @@
         <v>957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,7 +6719,7 @@
         <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6731,7 +6734,7 @@
         <v>24</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6746,7 +6749,7 @@
         <v>24</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,13 +6764,13 @@
         <v>13870</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>478</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -6776,13 +6779,13 @@
         <v>6723</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -6791,13 +6794,13 @@
         <v>20593</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,13 +6815,13 @@
         <v>35160</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
@@ -6827,13 +6830,13 @@
         <v>28456</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M31" s="7">
         <v>66</v>
@@ -6842,13 +6845,13 @@
         <v>63616</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +6866,13 @@
         <v>30944</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -6878,13 +6881,13 @@
         <v>20238</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M32" s="7">
         <v>51</v>
@@ -6893,13 +6896,13 @@
         <v>51182</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,7 +6958,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6967,13 +6970,13 @@
         <v>1011</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>295</v>
+        <v>505</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6988,7 +6991,7 @@
         <v>24</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6997,13 +7000,13 @@
         <v>1011</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,13 +7021,13 @@
         <v>9402</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -7033,13 +7036,13 @@
         <v>8827</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -7048,13 +7051,13 @@
         <v>18228</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7072,13 @@
         <v>22093</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -7084,13 +7087,13 @@
         <v>20510</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="M36" s="7">
         <v>43</v>
@@ -7099,13 +7102,13 @@
         <v>42603</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,13 +7123,13 @@
         <v>34207</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -7135,13 +7138,13 @@
         <v>25922</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="M37" s="7">
         <v>59</v>
@@ -7150,13 +7153,13 @@
         <v>60130</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7174,13 @@
         <v>40790</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H38" s="7">
         <v>20</v>
@@ -7186,13 +7189,13 @@
         <v>20309</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M38" s="7">
         <v>59</v>
@@ -7201,13 +7204,13 @@
         <v>61099</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,7 +7266,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7275,13 +7278,13 @@
         <v>12282</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="H40" s="7">
         <v>8</v>
@@ -7290,13 +7293,13 @@
         <v>8209</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M40" s="7">
         <v>19</v>
@@ -7305,13 +7308,13 @@
         <v>20491</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,13 +7329,13 @@
         <v>31042</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="H41" s="7">
         <v>21</v>
@@ -7341,13 +7344,13 @@
         <v>21259</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="M41" s="7">
         <v>48</v>
@@ -7356,7 +7359,7 @@
         <v>52300</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>409</v>
+        <v>559</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>560</v>
@@ -7428,13 +7431,13 @@
         <v>86986</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="H43" s="7">
         <v>70</v>
@@ -7443,13 +7446,13 @@
         <v>72679</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="M43" s="7">
         <v>147</v>
@@ -7458,13 +7461,13 @@
         <v>159665</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7482,13 @@
         <v>141375</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="H44" s="7">
         <v>109</v>
@@ -7494,13 +7497,13 @@
         <v>115222</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="M44" s="7">
         <v>233</v>
@@ -7509,13 +7512,13 @@
         <v>256597</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,7 +7574,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7598,7 +7601,7 @@
         <v>1080</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>18</v>
@@ -7616,10 +7619,10 @@
         <v>592</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>214</v>
+        <v>593</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,13 +7637,13 @@
         <v>2793</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>106</v>
+        <v>597</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -7655,7 +7658,7 @@
         <v>18</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -7664,13 +7667,13 @@
         <v>4892</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>210</v>
+        <v>589</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,13 +7688,13 @@
         <v>23038</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>417</v>
+        <v>601</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H48" s="7">
         <v>24</v>
@@ -7700,13 +7703,13 @@
         <v>25295</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>486</v>
+        <v>605</v>
       </c>
       <c r="M48" s="7">
         <v>45</v>
@@ -7715,13 +7718,13 @@
         <v>48332</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,13 +7739,13 @@
         <v>117078</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="H49" s="7">
         <v>77</v>
@@ -7751,13 +7754,13 @@
         <v>78354</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="M49" s="7">
         <v>192</v>
@@ -7766,13 +7769,13 @@
         <v>195431</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>614</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7790,13 @@
         <v>182535</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H50" s="7">
         <v>127</v>
@@ -7802,13 +7805,13 @@
         <v>133644</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>400</v>
+        <v>622</v>
       </c>
       <c r="M50" s="7">
         <v>300</v>
@@ -7817,13 +7820,13 @@
         <v>316179</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,13 +7894,13 @@
         <v>23429</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>623</v>
+        <v>212</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -7906,13 +7909,13 @@
         <v>16260</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M52" s="7">
         <v>37</v>
@@ -7921,13 +7924,13 @@
         <v>39689</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>147</v>
+        <v>630</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>629</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,13 +7945,13 @@
         <v>54773</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="H53" s="7">
         <v>36</v>
@@ -7957,13 +7960,13 @@
         <v>36082</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>633</v>
+        <v>409</v>
       </c>
       <c r="M53" s="7">
         <v>85</v>
@@ -7972,13 +7975,13 @@
         <v>90854</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>213</v>
+        <v>636</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>379</v>
+        <v>637</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +7996,13 @@
         <v>214240</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="H54" s="7">
         <v>156</v>
@@ -8008,13 +8011,13 @@
         <v>159550</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>640</v>
+        <v>223</v>
       </c>
       <c r="M54" s="7">
         <v>348</v>
@@ -8023,13 +8026,13 @@
         <v>373791</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>641</v>
+        <v>463</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,13 +8047,13 @@
         <v>402449</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H55" s="7">
         <v>287</v>
@@ -8059,13 +8062,13 @@
         <v>288412</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="M55" s="7">
         <v>668</v>
@@ -8074,13 +8077,13 @@
         <v>690861</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>650</v>
+        <v>359</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,13 +8098,13 @@
         <v>727431</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H56" s="7">
         <v>518</v>
@@ -8110,13 +8113,13 @@
         <v>536868</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M56" s="7">
         <v>1198</v>
@@ -8125,13 +8128,13 @@
         <v>1264299</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6715-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6715-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D36BC923-7EEE-41E5-A774-9D78A546B250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A64650-7E0E-4EAE-B3EF-2FEEAB28E176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E32E91D1-5558-4FDE-8A73-ADDA649FE515}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CD8643F1-DF48-4EBF-B376-D1A82F7AE98A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="692">
   <si>
     <t>Población según si tienen sentido sus tareas del trabajo en 2012 (Tasa respuesta: 33,9%)</t>
   </si>
@@ -72,30 +72,144 @@
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
   </si>
   <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
     <t>Muchas veces</t>
   </si>
   <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>3,48%</t>
   </si>
   <si>
@@ -111,9 +225,6 @@
     <t>2,37%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>1,18%</t>
   </si>
   <si>
@@ -210,9 +321,6 @@
     <t>85,47%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -330,1059 +438,1053 @@
     <t>Granada</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen sentido sus tareas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen sentido sus tareas del trabajo en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
     <t>2,56%</t>
   </si>
   <si>
@@ -1548,9 +1650,6 @@
     <t>37,54%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
     <t>45,75%</t>
   </si>
   <si>
@@ -1710,9 +1809,6 @@
     <t>7,46%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
     <t>11,03%</t>
   </si>
   <si>
@@ -1935,9 +2031,6 @@
     <t>1,14%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
     <t>2,89%</t>
   </si>
   <si>
@@ -1945,9 +2038,6 @@
   </si>
   <si>
     <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
   </si>
   <si>
     <t>2,96%</t>
@@ -2434,7 +2524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001585CF-C693-4B78-AC56-144A4D89B261}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F603B9-5FE7-4696-9941-8C3BE29B5F87}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2552,223 +2642,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1211</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1176</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2387</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2346</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2346</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>18468</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7602</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="N6" s="7">
+        <v>26070</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>16531</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5269</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="N7" s="7">
+        <v>21800</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D8" s="7">
+        <v>90630</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="I8" s="7">
+        <v>70869</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="N8" s="7">
+        <v>161499</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,48 +2897,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D9" s="7">
+        <v>126840</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="I9" s="7">
+        <v>87263</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="N9" s="7">
+        <v>214103</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2830,13 +2956,13 @@
         <v>1047</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2845,13 +2971,13 @@
         <v>1078</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2860,19 +2986,19 @@
         <v>2125</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2881,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2896,13 +3022,13 @@
         <v>1036</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2911,19 +3037,19 @@
         <v>1036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>8</v>
@@ -2932,13 +3058,13 @@
         <v>7745</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -2947,13 +3073,13 @@
         <v>6781</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -2962,19 +3088,19 @@
         <v>14526</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>20</v>
@@ -2983,13 +3109,13 @@
         <v>20495</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2998,13 +3124,13 @@
         <v>17995</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3013,19 +3139,19 @@
         <v>38490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
         <v>132</v>
@@ -3034,13 +3160,13 @@
         <v>142953</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -3049,13 +3175,13 @@
         <v>95798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>219</v>
@@ -3064,13 +3190,13 @@
         <v>238750</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3211,13 @@
         <v>172240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>111</v>
@@ -3100,13 +3226,13 @@
         <v>122688</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>272</v>
@@ -3115,18 +3241,18 @@
         <v>294928</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3138,13 +3264,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3153,13 +3279,13 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3168,19 +3294,19 @@
         <v>986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>6</v>
@@ -3189,13 +3315,13 @@
         <v>5600</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3204,13 +3330,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -3219,19 +3345,19 @@
         <v>5600</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
@@ -3240,13 +3366,13 @@
         <v>17179</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -3255,13 +3381,13 @@
         <v>19862</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -3270,19 +3396,19 @@
         <v>37041</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>38</v>
@@ -3291,13 +3417,13 @@
         <v>37722</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3306,13 +3432,13 @@
         <v>21194</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -3321,19 +3447,19 @@
         <v>58915</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7">
         <v>84</v>
@@ -3342,13 +3468,13 @@
         <v>82700</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -3357,13 +3483,13 @@
         <v>39345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -3372,13 +3498,13 @@
         <v>122044</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3519,13 @@
         <v>143201</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>77</v>
@@ -3408,13 +3534,13 @@
         <v>81386</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>222</v>
@@ -3423,72 +3549,72 @@
         <v>224586</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>1211</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>2387</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -3497,196 +3623,196 @@
         <v>1041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>4227</v>
+        <v>1881</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>5269</v>
+        <v>2922</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>28908</v>
+        <v>10440</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>19904</v>
+        <v>12302</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N24" s="7">
-        <v>48812</v>
+        <v>22741</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D25" s="7">
-        <v>46082</v>
+        <v>29551</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I25" s="7">
-        <v>18458</v>
+        <v>13189</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N25" s="7">
-        <v>64540</v>
+        <v>42740</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="D26" s="7">
-        <v>192287</v>
+        <v>101657</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="H26" s="7">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="I26" s="7">
-        <v>145945</v>
+        <v>75076</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
-        <v>314</v>
+        <v>162</v>
       </c>
       <c r="N26" s="7">
-        <v>338232</v>
+        <v>176733</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,54 +3821,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>253</v>
+        <v>131</v>
       </c>
       <c r="D27" s="7">
-        <v>269529</v>
+        <v>142689</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="I27" s="7">
-        <v>189711</v>
+        <v>102448</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
-        <v>427</v>
+        <v>227</v>
       </c>
       <c r="N27" s="7">
-        <v>459240</v>
+        <v>245137</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3754,13 +3880,13 @@
         <v>1051</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3769,13 +3895,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3784,19 +3910,19 @@
         <v>1051</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -3805,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3820,13 +3946,13 @@
         <v>3084</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -3835,19 +3961,19 @@
         <v>3084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>6</v>
@@ -3856,13 +3982,13 @@
         <v>7152</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -3871,13 +3997,13 @@
         <v>13549</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -3886,19 +4012,19 @@
         <v>20701</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
         <v>11</v>
@@ -3907,13 +4033,13 @@
         <v>11242</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -3922,13 +4048,13 @@
         <v>14655</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -3937,19 +4063,19 @@
         <v>25897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7">
         <v>57</v>
@@ -3958,13 +4084,13 @@
         <v>62870</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -3973,13 +4099,13 @@
         <v>24346</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
@@ -3988,13 +4114,13 @@
         <v>87215</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4135,13 @@
         <v>82314</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>54</v>
@@ -4024,13 +4150,13 @@
         <v>55634</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>129</v>
@@ -4039,18 +4165,18 @@
         <v>137947</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4062,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -4077,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4092,19 +4218,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -4113,13 +4239,13 @@
         <v>1036</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4128,13 +4254,13 @@
         <v>1083</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -4143,19 +4269,19 @@
         <v>2119</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C36" s="7">
         <v>13</v>
@@ -4164,13 +4290,13 @@
         <v>12675</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -4179,13 +4305,13 @@
         <v>5971</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="M36" s="7">
         <v>19</v>
@@ -4194,19 +4320,19 @@
         <v>18646</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>19</v>
@@ -4215,13 +4341,13 @@
         <v>21744</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -4230,13 +4356,13 @@
         <v>16749</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="M37" s="7">
         <v>36</v>
@@ -4245,19 +4371,19 @@
         <v>38493</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7">
         <v>76</v>
@@ -4266,13 +4392,13 @@
         <v>82811</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="H38" s="7">
         <v>28</v>
@@ -4281,13 +4407,13 @@
         <v>31489</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>104</v>
@@ -4296,13 +4422,13 @@
         <v>114300</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4443,13 @@
         <v>118266</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <v>52</v>
@@ -4332,13 +4458,13 @@
         <v>55292</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M39" s="7">
         <v>161</v>
@@ -4347,18 +4473,18 @@
         <v>173558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4370,13 +4496,13 @@
         <v>897</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -4385,13 +4511,13 @@
         <v>1889</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -4400,19 +4526,19 @@
         <v>2786</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C41" s="7">
         <v>5</v>
@@ -4421,13 +4547,13 @@
         <v>6105</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -4436,13 +4562,13 @@
         <v>2234</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="M41" s="7">
         <v>7</v>
@@ -4451,19 +4577,19 @@
         <v>8338</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C42" s="7">
         <v>41</v>
@@ -4472,13 +4598,13 @@
         <v>44206</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="H42" s="7">
         <v>33</v>
@@ -4487,13 +4613,13 @@
         <v>36364</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="M42" s="7">
         <v>74</v>
@@ -4502,19 +4628,19 @@
         <v>80570</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7">
         <v>46</v>
@@ -4523,13 +4649,13 @@
         <v>45073</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="H43" s="7">
         <v>44</v>
@@ -4538,13 +4664,13 @@
         <v>47065</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="M43" s="7">
         <v>90</v>
@@ -4553,19 +4679,19 @@
         <v>92139</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C44" s="7">
         <v>160</v>
@@ -4574,13 +4700,13 @@
         <v>175690</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="H44" s="7">
         <v>90</v>
@@ -4589,13 +4715,13 @@
         <v>94613</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="M44" s="7">
         <v>250</v>
@@ -4604,13 +4730,13 @@
         <v>270302</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4751,13 @@
         <v>271971</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H45" s="7">
         <v>171</v>
@@ -4640,13 +4766,13 @@
         <v>182165</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M45" s="7">
         <v>424</v>
@@ -4655,18 +4781,18 @@
         <v>454136</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4678,13 +4804,13 @@
         <v>2044</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4693,13 +4819,13 @@
         <v>1046</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -4708,19 +4834,19 @@
         <v>3091</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C47" s="7">
         <v>8</v>
@@ -4729,13 +4855,13 @@
         <v>8188</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="H47" s="7">
         <v>9</v>
@@ -4744,13 +4870,13 @@
         <v>9615</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
@@ -4759,19 +4885,19 @@
         <v>17802</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C48" s="7">
         <v>44</v>
@@ -4780,13 +4906,13 @@
         <v>45822</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="H48" s="7">
         <v>35</v>
@@ -4795,13 +4921,13 @@
         <v>38758</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="K48" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M48" s="7">
         <v>79</v>
@@ -4810,19 +4936,19 @@
         <v>84580</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C49" s="7">
         <v>122</v>
@@ -4831,13 +4957,13 @@
         <v>131195</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="H49" s="7">
         <v>73</v>
@@ -4846,13 +4972,13 @@
         <v>79492</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="M49" s="7">
         <v>195</v>
@@ -4861,19 +4987,19 @@
         <v>210687</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C50" s="7">
         <v>161</v>
@@ -4882,13 +5008,13 @@
         <v>174983</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="H50" s="7">
         <v>116</v>
@@ -4897,13 +5023,13 @@
         <v>128748</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="M50" s="7">
         <v>277</v>
@@ -4912,13 +5038,13 @@
         <v>303730</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +5059,13 @@
         <v>362232</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H51" s="7">
         <v>234</v>
@@ -4948,13 +5074,13 @@
         <v>257659</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M51" s="7">
         <v>571</v>
@@ -4963,13 +5089,13 @@
         <v>619890</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +5112,13 @@
         <v>6250</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="H52" s="7">
         <v>6</v>
@@ -5001,13 +5127,13 @@
         <v>6176</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="M52" s="7">
         <v>12</v>
@@ -5016,19 +5142,19 @@
         <v>12425</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C53" s="7">
         <v>21</v>
@@ -5037,13 +5163,13 @@
         <v>21970</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="H53" s="7">
         <v>20</v>
@@ -5052,13 +5178,13 @@
         <v>21279</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="M53" s="7">
         <v>41</v>
@@ -5067,19 +5193,19 @@
         <v>43249</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C54" s="7">
         <v>155</v>
@@ -5088,13 +5214,13 @@
         <v>163687</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="H54" s="7">
         <v>131</v>
@@ -5103,13 +5229,13 @@
         <v>141189</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="M54" s="7">
         <v>286</v>
@@ -5118,19 +5244,19 @@
         <v>304876</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C55" s="7">
         <v>299</v>
@@ -5139,13 +5265,13 @@
         <v>313553</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="H55" s="7">
         <v>203</v>
@@ -5154,13 +5280,13 @@
         <v>215608</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="M55" s="7">
         <v>502</v>
@@ -5169,19 +5295,19 @@
         <v>529161</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C56" s="7">
         <v>852</v>
@@ -5190,13 +5316,13 @@
         <v>914292</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="H56" s="7">
         <v>513</v>
@@ -5205,13 +5331,13 @@
         <v>560283</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="M56" s="7">
         <v>1365</v>
@@ -5220,13 +5346,13 @@
         <v>1474576</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5367,13 @@
         <v>1419752</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H57" s="7">
         <v>873</v>
@@ -5256,13 +5382,13 @@
         <v>944535</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M57" s="7">
         <v>2206</v>
@@ -5271,18 +5397,18 @@
         <v>2364287</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -5306,7 +5432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99316C0A-9CE4-45A2-971F-D82E1370FCA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142CEBAF-8E63-4A00-8C26-87E01683F42D}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5323,7 +5449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5430,13 +5556,13 @@
         <v>1022</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5445,13 +5571,13 @@
         <v>2972</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5460,19 +5586,19 @@
         <v>3994</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>97</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
@@ -5481,13 +5607,13 @@
         <v>6922</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5496,13 +5622,13 @@
         <v>1887</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -5511,19 +5637,19 @@
         <v>8809</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>376</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>19</v>
@@ -5532,13 +5658,13 @@
         <v>22532</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -5547,13 +5673,13 @@
         <v>8322</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -5562,19 +5688,19 @@
         <v>30854</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>24</v>
@@ -5583,13 +5709,13 @@
         <v>27238</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -5598,13 +5724,13 @@
         <v>25015</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -5613,19 +5739,19 @@
         <v>52253</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>70</v>
@@ -5634,13 +5760,13 @@
         <v>78453</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>61</v>
@@ -5649,13 +5775,13 @@
         <v>62778</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="M8" s="7">
         <v>131</v>
@@ -5664,13 +5790,13 @@
         <v>141231</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5811,13 @@
         <v>136166</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -5700,13 +5826,13 @@
         <v>100975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>218</v>
@@ -5715,18 +5841,18 @@
         <v>237141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5738,13 +5864,13 @@
         <v>1087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5753,13 +5879,13 @@
         <v>985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5768,19 +5894,19 @@
         <v>2072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -5789,13 +5915,13 @@
         <v>2068</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>100</v>
+        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5804,13 +5930,13 @@
         <v>1109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5819,19 +5945,19 @@
         <v>3177</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>26</v>
@@ -5840,13 +5966,13 @@
         <v>27347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -5855,13 +5981,13 @@
         <v>11195</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -5870,19 +5996,19 @@
         <v>38542</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>44</v>
@@ -5891,13 +6017,13 @@
         <v>46320</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -5906,13 +6032,13 @@
         <v>26031</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -5921,19 +6047,19 @@
         <v>72350</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
         <v>84</v>
@@ -5942,13 +6068,13 @@
         <v>93475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="H14" s="7">
         <v>71</v>
@@ -5957,13 +6083,13 @@
         <v>74361</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="M14" s="7">
         <v>155</v>
@@ -5972,13 +6098,13 @@
         <v>167836</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +6119,13 @@
         <v>170297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -6008,13 +6134,13 @@
         <v>113680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>266</v>
@@ -6023,18 +6149,18 @@
         <v>283977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6046,13 +6172,13 @@
         <v>2512</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6061,13 +6187,13 @@
         <v>1898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -6076,19 +6202,19 @@
         <v>4410</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -6097,13 +6223,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6112,13 +6238,13 @@
         <v>902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -6127,19 +6253,19 @@
         <v>902</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
@@ -6148,13 +6274,13 @@
         <v>10563</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -6163,13 +6289,13 @@
         <v>8949</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -6178,19 +6304,19 @@
         <v>19512</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>43</v>
@@ -6199,13 +6325,13 @@
         <v>41417</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -6214,13 +6340,13 @@
         <v>26870</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -6229,19 +6355,19 @@
         <v>68287</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7">
         <v>76</v>
@@ -6250,13 +6376,13 @@
         <v>71892</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -6265,13 +6391,13 @@
         <v>45714</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>123</v>
@@ -6280,13 +6406,13 @@
         <v>117606</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6427,13 @@
         <v>126384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6316,13 +6442,13 @@
         <v>84333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -6331,18 +6457,18 @@
         <v>210717</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6354,13 +6480,13 @@
         <v>1064</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>439</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6369,13 +6495,13 @@
         <v>1115</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -6384,19 +6510,19 @@
         <v>2179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
         <v>2</v>
@@ -6405,13 +6531,13 @@
         <v>2546</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6420,13 +6546,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -6435,19 +6561,19 @@
         <v>2546</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
         <v>6</v>
@@ -6456,13 +6582,13 @@
         <v>6556</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>105</v>
+        <v>481</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -6471,13 +6597,13 @@
         <v>11060</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -6486,19 +6612,19 @@
         <v>17616</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>11</v>
@@ -6507,13 +6633,13 @@
         <v>14045</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -6522,13 +6648,13 @@
         <v>5084</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -6537,19 +6663,19 @@
         <v>19129</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>84</v>
@@ -6558,13 +6684,13 @@
         <v>87969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -6573,13 +6699,13 @@
         <v>64600</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="M26" s="7">
         <v>146</v>
@@ -6588,13 +6714,13 @@
         <v>152568</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,13 +6735,13 @@
         <v>112180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -6624,13 +6750,13 @@
         <v>81859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -6639,18 +6765,18 @@
         <v>194039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6662,13 +6788,13 @@
         <v>957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6677,13 +6803,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -6692,19 +6818,19 @@
         <v>957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -6713,13 +6839,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6728,13 +6854,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -6743,19 +6869,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>13</v>
@@ -6764,13 +6890,13 @@
         <v>13870</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -6779,13 +6905,13 @@
         <v>6723</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -6794,19 +6920,19 @@
         <v>20593</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
         <v>35</v>
@@ -6815,13 +6941,13 @@
         <v>35160</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>488</v>
+        <v>522</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
@@ -6830,13 +6956,13 @@
         <v>28456</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>491</v>
+        <v>525</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
       <c r="M31" s="7">
         <v>66</v>
@@ -6845,19 +6971,19 @@
         <v>63616</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7">
         <v>30</v>
@@ -6866,13 +6992,13 @@
         <v>30944</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>498</v>
+        <v>532</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -6881,13 +7007,13 @@
         <v>20238</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="M32" s="7">
         <v>51</v>
@@ -6896,13 +7022,13 @@
         <v>51182</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>503</v>
+        <v>152</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,13 +7043,13 @@
         <v>80930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>59</v>
@@ -6932,13 +7058,13 @@
         <v>55418</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>138</v>
@@ -6947,18 +7073,18 @@
         <v>136348</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6970,13 +7096,13 @@
         <v>1011</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6985,13 +7111,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -7000,19 +7126,19 @@
         <v>1011</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
         <v>9</v>
@@ -7021,13 +7147,13 @@
         <v>9402</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -7036,13 +7162,13 @@
         <v>8827</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -7051,19 +7177,19 @@
         <v>18228</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C36" s="7">
         <v>22</v>
@@ -7072,13 +7198,13 @@
         <v>22093</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -7087,13 +7213,13 @@
         <v>20510</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="M36" s="7">
         <v>43</v>
@@ -7102,19 +7228,19 @@
         <v>42603</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>32</v>
@@ -7123,13 +7249,13 @@
         <v>34207</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -7138,13 +7264,13 @@
         <v>25922</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="M37" s="7">
         <v>59</v>
@@ -7153,19 +7279,19 @@
         <v>60130</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7">
         <v>39</v>
@@ -7174,13 +7300,13 @@
         <v>40790</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="H38" s="7">
         <v>20</v>
@@ -7189,13 +7315,13 @@
         <v>20309</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="M38" s="7">
         <v>59</v>
@@ -7204,13 +7330,13 @@
         <v>61099</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7225,13 +7351,13 @@
         <v>107502</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <v>77</v>
@@ -7240,13 +7366,13 @@
         <v>75568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M39" s="7">
         <v>180</v>
@@ -7255,18 +7381,18 @@
         <v>183071</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7278,13 +7404,13 @@
         <v>12282</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="H40" s="7">
         <v>8</v>
@@ -7293,13 +7419,13 @@
         <v>8209</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="M40" s="7">
         <v>19</v>
@@ -7308,19 +7434,19 @@
         <v>20491</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C41" s="7">
         <v>27</v>
@@ -7329,13 +7455,13 @@
         <v>31042</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>555</v>
+        <v>588</v>
       </c>
       <c r="H41" s="7">
         <v>21</v>
@@ -7344,13 +7470,13 @@
         <v>21259</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>556</v>
+        <v>589</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>557</v>
+        <v>13</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="M41" s="7">
         <v>48</v>
@@ -7359,19 +7485,19 @@
         <v>52300</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C42" s="7">
         <v>74</v>
@@ -7380,13 +7506,13 @@
         <v>88241</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="H42" s="7">
         <v>66</v>
@@ -7395,13 +7521,13 @@
         <v>67497</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="M42" s="7">
         <v>140</v>
@@ -7410,19 +7536,19 @@
         <v>155739</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7">
         <v>77</v>
@@ -7431,13 +7557,13 @@
         <v>86986</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="H43" s="7">
         <v>70</v>
@@ -7446,13 +7572,13 @@
         <v>72679</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="M43" s="7">
         <v>147</v>
@@ -7461,19 +7587,19 @@
         <v>159665</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C44" s="7">
         <v>124</v>
@@ -7482,13 +7608,13 @@
         <v>141375</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="H44" s="7">
         <v>109</v>
@@ -7497,13 +7623,13 @@
         <v>115222</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="M44" s="7">
         <v>233</v>
@@ -7512,13 +7638,13 @@
         <v>256597</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7533,13 +7659,13 @@
         <v>359926</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H45" s="7">
         <v>274</v>
@@ -7548,13 +7674,13 @@
         <v>284866</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M45" s="7">
         <v>587</v>
@@ -7563,18 +7689,18 @@
         <v>644792</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7586,13 +7712,13 @@
         <v>3494</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -7601,13 +7727,13 @@
         <v>1080</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>97</v>
+        <v>369</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="M46" s="7">
         <v>4</v>
@@ -7616,19 +7742,19 @@
         <v>4574</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C47" s="7">
         <v>3</v>
@@ -7637,13 +7763,13 @@
         <v>2793</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>597</v>
+        <v>629</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -7652,13 +7778,13 @@
         <v>2099</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -7667,19 +7793,19 @@
         <v>4892</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C48" s="7">
         <v>21</v>
@@ -7688,13 +7814,13 @@
         <v>23038</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>602</v>
+        <v>634</v>
       </c>
       <c r="H48" s="7">
         <v>24</v>
@@ -7703,13 +7829,13 @@
         <v>25295</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>603</v>
+        <v>635</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>605</v>
+        <v>637</v>
       </c>
       <c r="M48" s="7">
         <v>45</v>
@@ -7718,19 +7844,19 @@
         <v>48332</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C49" s="7">
         <v>115</v>
@@ -7739,13 +7865,13 @@
         <v>117078</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="H49" s="7">
         <v>77</v>
@@ -7754,13 +7880,13 @@
         <v>78354</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="M49" s="7">
         <v>192</v>
@@ -7769,19 +7895,19 @@
         <v>195431</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C50" s="7">
         <v>173</v>
@@ -7790,13 +7916,13 @@
         <v>182535</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="H50" s="7">
         <v>127</v>
@@ -7805,13 +7931,13 @@
         <v>133644</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>622</v>
+        <v>654</v>
       </c>
       <c r="M50" s="7">
         <v>300</v>
@@ -7820,13 +7946,13 @@
         <v>316179</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,13 +7967,13 @@
         <v>328937</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H51" s="7">
         <v>231</v>
@@ -7856,13 +7982,13 @@
         <v>240471</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M51" s="7">
         <v>546</v>
@@ -7871,13 +7997,13 @@
         <v>569408</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,13 +8020,13 @@
         <v>23429</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>626</v>
+        <v>658</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -7909,13 +8035,13 @@
         <v>16260</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>629</v>
+        <v>661</v>
       </c>
       <c r="M52" s="7">
         <v>37</v>
@@ -7924,19 +8050,19 @@
         <v>39689</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>631</v>
+        <v>663</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C53" s="7">
         <v>49</v>
@@ -7945,13 +8071,13 @@
         <v>54773</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>632</v>
+        <v>17</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>633</v>
+        <v>664</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>634</v>
+        <v>665</v>
       </c>
       <c r="H53" s="7">
         <v>36</v>
@@ -7960,13 +8086,13 @@
         <v>36082</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>635</v>
+        <v>666</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="M53" s="7">
         <v>85</v>
@@ -7975,19 +8101,19 @@
         <v>90854</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>636</v>
+        <v>30</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C54" s="7">
         <v>192</v>
@@ -7996,13 +8122,13 @@
         <v>214240</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>641</v>
+        <v>671</v>
       </c>
       <c r="H54" s="7">
         <v>156</v>
@@ -8011,13 +8137,13 @@
         <v>159550</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="M54" s="7">
         <v>348</v>
@@ -8026,19 +8152,19 @@
         <v>373791</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C55" s="7">
         <v>381</v>
@@ -8047,13 +8173,13 @@
         <v>402449</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>646</v>
+        <v>676</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="H55" s="7">
         <v>287</v>
@@ -8062,13 +8188,13 @@
         <v>288412</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>651</v>
+        <v>681</v>
       </c>
       <c r="M55" s="7">
         <v>668</v>
@@ -8077,19 +8203,19 @@
         <v>690861</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C56" s="7">
         <v>680</v>
@@ -8098,13 +8224,13 @@
         <v>727431</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>653</v>
+        <v>683</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>655</v>
+        <v>685</v>
       </c>
       <c r="H56" s="7">
         <v>518</v>
@@ -8113,13 +8239,13 @@
         <v>536868</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>656</v>
+        <v>686</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>657</v>
+        <v>687</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>658</v>
+        <v>688</v>
       </c>
       <c r="M56" s="7">
         <v>1198</v>
@@ -8128,13 +8254,13 @@
         <v>1264299</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>659</v>
+        <v>689</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>661</v>
+        <v>691</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8149,13 +8275,13 @@
         <v>1422322</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H57" s="7">
         <v>1013</v>
@@ -8164,13 +8290,13 @@
         <v>1037172</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M57" s="7">
         <v>2336</v>
@@ -8179,18 +8305,18 @@
         <v>2459494</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
